--- a/丘CHILL_新.xlsx
+++ b/丘CHILL_新.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG49"/>
+  <dimension ref="A1:BG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
@@ -10285,7 +10285,6 @@
           <t>629</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
           <t>1375</t>
@@ -10414,6 +10413,1596 @@
       <c r="AX49" t="inlineStr">
         <is>
           <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>4,481</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4,481</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4,481</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4,481</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>3,382</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1036.00</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>3,382</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1036.00</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU55" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>3,382</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1036.00</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AQ56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>88.0</t>
         </is>
       </c>
     </row>

--- a/丘CHILL_新.xlsx
+++ b/丘CHILL_新.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="8020" windowWidth="28120" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="7100" windowWidth="28120" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="丘CHILL Whiskey·Cocktail餐吧（环宇城店）" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,13 +598,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG56"/>
+  <dimension ref="A1:BH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -619,23 +619,23 @@
     <col width="14.1640625" customWidth="1" style="4" min="35" max="35"/>
     <col width="9.5" customWidth="1" style="4" min="36" max="36"/>
     <col width="8.1640625" customWidth="1" style="4" min="37" max="37"/>
-    <col width="19.6640625" customWidth="1" style="4" min="38" max="38"/>
-    <col width="31" customWidth="1" style="4" min="39" max="39"/>
-    <col width="9.6640625" customWidth="1" style="4" min="40" max="41"/>
-    <col width="30.6640625" customWidth="1" style="4" min="42" max="42"/>
-    <col width="9.1640625" customWidth="1" style="4" min="43" max="43"/>
-    <col width="10.33203125" customWidth="1" style="4" min="44" max="44"/>
-    <col width="32" customWidth="1" style="4" min="45" max="45"/>
-    <col width="9" customWidth="1" style="4" min="46" max="47"/>
-    <col width="30" customWidth="1" style="4" min="48" max="48"/>
-    <col width="9" customWidth="1" style="4" min="49" max="50"/>
-    <col width="31" customWidth="1" style="4" min="51" max="51"/>
-    <col width="9" customWidth="1" style="4" min="52" max="53"/>
-    <col width="30.1640625" customWidth="1" style="4" min="54" max="54"/>
-    <col width="9" customWidth="1" style="4" min="55" max="56"/>
-    <col width="26" customWidth="1" style="4" min="57" max="57"/>
-    <col width="9" customWidth="1" style="4" min="58" max="58"/>
-    <col width="9" customWidth="1" style="4" min="59" max="16384"/>
+    <col width="19.6640625" customWidth="1" style="4" min="38" max="39"/>
+    <col width="31" customWidth="1" style="4" min="40" max="40"/>
+    <col width="9.6640625" customWidth="1" style="4" min="41" max="42"/>
+    <col width="30.6640625" customWidth="1" style="4" min="43" max="43"/>
+    <col width="9.1640625" customWidth="1" style="4" min="44" max="44"/>
+    <col width="10.33203125" customWidth="1" style="4" min="45" max="45"/>
+    <col width="32" customWidth="1" style="4" min="46" max="46"/>
+    <col width="9" customWidth="1" style="4" min="47" max="48"/>
+    <col width="30" customWidth="1" style="4" min="49" max="49"/>
+    <col width="9" customWidth="1" style="4" min="50" max="51"/>
+    <col width="31" customWidth="1" style="4" min="52" max="52"/>
+    <col width="9" customWidth="1" style="4" min="53" max="54"/>
+    <col width="30.1640625" customWidth="1" style="4" min="55" max="55"/>
+    <col width="9" customWidth="1" style="4" min="56" max="57"/>
+    <col width="26" customWidth="1" style="4" min="58" max="58"/>
+    <col width="9" customWidth="1" style="4" min="59" max="60"/>
+    <col width="9" customWidth="1" style="4" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="47.25" customFormat="1" customHeight="1" s="1">
@@ -831,65 +831,69 @@
       </c>
       <c r="AM1" s="6" t="inlineStr">
         <is>
+          <t>类目</t>
+        </is>
+      </c>
+      <c r="AN1" s="6" t="inlineStr">
+        <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN1" s="6" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AO1" s="6" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AP1" s="6" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ1" s="6" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AR1" s="6" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AS1" s="6" t="inlineStr">
+      <c r="AT1" s="6" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT1" s="6" t="inlineStr">
+      <c r="AU1" s="6" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AU1" s="6" t="inlineStr">
+      <c r="AV1" s="6" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AV1" s="6" t="inlineStr">
+      <c r="AW1" s="6" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW1" s="6" t="inlineStr">
+      <c r="AX1" s="6" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AX1" s="6" t="inlineStr">
+      <c r="AY1" s="6" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AY1" s="6" t="n"/>
       <c r="AZ1" s="6" t="n"/>
       <c r="BA1" s="6" t="n"/>
       <c r="BB1" s="6" t="n"/>
@@ -898,6 +902,7 @@
       <c r="BE1" s="6" t="n"/>
       <c r="BF1" s="6" t="n"/>
       <c r="BG1" s="6" t="n"/>
+      <c r="BH1" s="6" t="n"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
@@ -1050,67 +1055,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM2" s="17" t="inlineStr">
+      <c r="AM2" s="17" t="n"/>
+      <c r="AN2" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN2" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO2" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP2" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP2" s="17" t="inlineStr">
+      <c r="AQ2" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ2" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR2" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS2" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS2" s="17" t="inlineStr">
+      <c r="AT2" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT2" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU2" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV2" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV2" s="17" t="inlineStr">
+      <c r="AW2" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW2" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX2" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY2" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY2" s="14" t="n"/>
       <c r="AZ2" s="14" t="n"/>
       <c r="BA2" s="14" t="n"/>
       <c r="BB2" s="14" t="n"/>
@@ -1119,6 +1124,7 @@
       <c r="BE2" s="14" t="n"/>
       <c r="BF2" s="14" t="n"/>
       <c r="BG2" s="14" t="n"/>
+      <c r="BH2" s="14" t="n"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
@@ -1271,67 +1277,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM3" s="17" t="inlineStr">
+      <c r="AM3" s="17" t="n"/>
+      <c r="AN3" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN3" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO3" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP3" s="17" t="inlineStr">
+      <c r="AQ3" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ3" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR3" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS3" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS3" s="17" t="inlineStr">
+      <c r="AT3" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT3" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU3" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV3" s="17" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV3" s="17" t="inlineStr">
+      <c r="AW3" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW3" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX3" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY3" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY3" s="14" t="n"/>
       <c r="AZ3" s="14" t="n"/>
       <c r="BA3" s="14" t="n"/>
       <c r="BB3" s="14" t="n"/>
@@ -1340,6 +1346,7 @@
       <c r="BE3" s="14" t="n"/>
       <c r="BF3" s="14" t="n"/>
       <c r="BG3" s="14" t="n"/>
+      <c r="BH3" s="14" t="n"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
@@ -1492,67 +1499,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM4" s="17" t="inlineStr">
+      <c r="AM4" s="17" t="n"/>
+      <c r="AN4" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN4" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO4" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP4" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP4" s="17" t="inlineStr">
+      <c r="AQ4" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ4" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR4" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS4" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS4" s="17" t="inlineStr">
+      <c r="AT4" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT4" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU4" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV4" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV4" s="17" t="inlineStr">
+      <c r="AW4" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW4" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX4" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY4" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY4" s="14" t="n"/>
       <c r="AZ4" s="14" t="n"/>
       <c r="BA4" s="14" t="n"/>
       <c r="BB4" s="14" t="n"/>
@@ -1561,6 +1568,7 @@
       <c r="BE4" s="14" t="n"/>
       <c r="BF4" s="14" t="n"/>
       <c r="BG4" s="14" t="n"/>
+      <c r="BH4" s="14" t="n"/>
     </row>
     <row r="5" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A5" s="9" t="inlineStr">
@@ -1713,67 +1721,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM5" s="18" t="inlineStr">
+      <c r="AM5" s="18" t="n"/>
+      <c r="AN5" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN5" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO5" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP5" s="18" t="inlineStr">
+      <c r="AQ5" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ5" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AR5" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS5" s="18" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AS5" s="18" t="inlineStr">
+      <c r="AT5" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT5" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU5" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV5" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV5" s="18" t="inlineStr">
+      <c r="AW5" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW5" s="18" t="inlineStr">
+      <c r="AX5" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX5" s="18" t="inlineStr">
+      <c r="AY5" s="18" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AY5" s="15" t="n"/>
       <c r="AZ5" s="15" t="n"/>
       <c r="BA5" s="15" t="n"/>
       <c r="BB5" s="15" t="n"/>
@@ -1782,6 +1790,7 @@
       <c r="BE5" s="15" t="n"/>
       <c r="BF5" s="15" t="n"/>
       <c r="BG5" s="15" t="n"/>
+      <c r="BH5" s="15" t="n"/>
     </row>
     <row r="6" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A6" s="9" t="inlineStr">
@@ -1934,67 +1943,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM6" s="18" t="inlineStr">
+      <c r="AM6" s="18" t="n"/>
+      <c r="AN6" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN6" s="18" t="inlineStr">
+      <c r="AO6" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AO6" s="18" t="inlineStr">
+      <c r="AP6" s="18" t="inlineStr">
         <is>
           <t>436.0</t>
         </is>
       </c>
-      <c r="AP6" s="18" t="inlineStr">
+      <c r="AQ6" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ6" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR6" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS6" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS6" s="18" t="inlineStr">
+      <c r="AT6" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT6" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU6" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV6" s="18" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV6" s="18" t="inlineStr">
+      <c r="AW6" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW6" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX6" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY6" s="18" t="inlineStr">
+        <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="AY6" s="15" t="n"/>
       <c r="AZ6" s="15" t="n"/>
       <c r="BA6" s="15" t="n"/>
       <c r="BB6" s="15" t="n"/>
@@ -2003,6 +2012,7 @@
       <c r="BE6" s="15" t="n"/>
       <c r="BF6" s="15" t="n"/>
       <c r="BG6" s="15" t="n"/>
+      <c r="BH6" s="15" t="n"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
@@ -2155,67 +2165,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM7" s="17" t="inlineStr">
+      <c r="AM7" s="17" t="n"/>
+      <c r="AN7" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN7" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO7" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP7" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP7" s="17" t="inlineStr">
+      <c r="AQ7" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ7" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR7" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS7" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS7" s="17" t="inlineStr">
+      <c r="AT7" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT7" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU7" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV7" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV7" s="17" t="inlineStr">
+      <c r="AW7" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW7" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX7" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY7" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY7" s="14" t="n"/>
       <c r="AZ7" s="14" t="n"/>
       <c r="BA7" s="14" t="n"/>
       <c r="BB7" s="14" t="n"/>
@@ -2224,6 +2234,7 @@
       <c r="BE7" s="14" t="n"/>
       <c r="BF7" s="14" t="n"/>
       <c r="BG7" s="14" t="n"/>
+      <c r="BH7" s="14" t="n"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="7" t="inlineStr">
@@ -2376,67 +2387,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM8" s="17" t="inlineStr">
+      <c r="AM8" s="17" t="n"/>
+      <c r="AN8" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN8" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO8" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP8" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP8" s="17" t="inlineStr">
+      <c r="AQ8" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ8" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR8" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS8" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS8" s="17" t="inlineStr">
+      <c r="AT8" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT8" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU8" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV8" s="17" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV8" s="17" t="inlineStr">
+      <c r="AW8" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW8" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX8" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY8" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY8" s="14" t="n"/>
       <c r="AZ8" s="14" t="n"/>
       <c r="BA8" s="14" t="n"/>
       <c r="BB8" s="14" t="n"/>
@@ -2445,6 +2456,7 @@
       <c r="BE8" s="14" t="n"/>
       <c r="BF8" s="14" t="n"/>
       <c r="BG8" s="14" t="n"/>
+      <c r="BH8" s="14" t="n"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
@@ -2597,67 +2609,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM9" s="17" t="inlineStr">
+      <c r="AM9" s="17" t="n"/>
+      <c r="AN9" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN9" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO9" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP9" s="17" t="inlineStr">
+      <c r="AQ9" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ9" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR9" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS9" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS9" s="17" t="inlineStr">
+      <c r="AT9" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT9" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU9" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV9" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV9" s="17" t="inlineStr">
+      <c r="AW9" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW9" s="17" t="inlineStr">
+      <c r="AX9" s="17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX9" s="17" t="inlineStr">
+      <c r="AY9" s="17" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AY9" s="14" t="n"/>
       <c r="AZ9" s="14" t="n"/>
       <c r="BA9" s="14" t="n"/>
       <c r="BB9" s="14" t="n"/>
@@ -2666,6 +2678,7 @@
       <c r="BE9" s="14" t="n"/>
       <c r="BF9" s="14" t="n"/>
       <c r="BG9" s="14" t="n"/>
+      <c r="BH9" s="14" t="n"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
@@ -2818,67 +2831,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM10" s="17" t="inlineStr">
+      <c r="AM10" s="17" t="n"/>
+      <c r="AN10" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN10" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO10" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP10" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP10" s="17" t="inlineStr">
+      <c r="AQ10" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ10" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR10" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS10" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS10" s="17" t="inlineStr">
+      <c r="AT10" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT10" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU10" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV10" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV10" s="17" t="inlineStr">
+      <c r="AW10" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW10" s="17" t="inlineStr">
+      <c r="AX10" s="17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX10" s="17" t="inlineStr">
+      <c r="AY10" s="17" t="inlineStr">
         <is>
           <t>138.0</t>
         </is>
       </c>
-      <c r="AY10" s="14" t="n"/>
       <c r="AZ10" s="14" t="n"/>
       <c r="BA10" s="14" t="n"/>
       <c r="BB10" s="14" t="n"/>
@@ -2887,6 +2900,7 @@
       <c r="BE10" s="14" t="n"/>
       <c r="BF10" s="14" t="n"/>
       <c r="BG10" s="14" t="n"/>
+      <c r="BH10" s="14" t="n"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -3039,67 +3053,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM11" s="17" t="inlineStr">
+      <c r="AM11" s="17" t="n"/>
+      <c r="AN11" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN11" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO11" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP11" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP11" s="17" t="inlineStr">
+      <c r="AQ11" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ11" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR11" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS11" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS11" s="17" t="inlineStr">
+      <c r="AT11" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT11" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU11" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV11" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV11" s="17" t="inlineStr">
+      <c r="AW11" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW11" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX11" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY11" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY11" s="14" t="n"/>
       <c r="AZ11" s="14" t="n"/>
       <c r="BA11" s="14" t="n"/>
       <c r="BB11" s="14" t="n"/>
@@ -3108,6 +3122,7 @@
       <c r="BE11" s="14" t="n"/>
       <c r="BF11" s="14" t="n"/>
       <c r="BG11" s="14" t="n"/>
+      <c r="BH11" s="14" t="n"/>
     </row>
     <row r="12" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A12" s="9" t="inlineStr">
@@ -3260,67 +3275,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM12" s="18" t="inlineStr">
+      <c r="AM12" s="18" t="n"/>
+      <c r="AN12" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN12" s="18" t="inlineStr">
+      <c r="AO12" s="18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AO12" s="18" t="inlineStr">
+      <c r="AP12" s="18" t="inlineStr">
         <is>
           <t>1090.0</t>
         </is>
       </c>
-      <c r="AP12" s="18" t="inlineStr">
+      <c r="AQ12" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ12" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR12" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS12" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS12" s="18" t="inlineStr">
+      <c r="AT12" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT12" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU12" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV12" s="18" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV12" s="18" t="inlineStr">
+      <c r="AW12" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW12" s="18" t="inlineStr">
+      <c r="AX12" s="18" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX12" s="18" t="inlineStr">
+      <c r="AY12" s="18" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
       </c>
-      <c r="AY12" s="15" t="n"/>
       <c r="AZ12" s="15" t="n"/>
       <c r="BA12" s="15" t="n"/>
       <c r="BB12" s="15" t="n"/>
@@ -3329,6 +3344,7 @@
       <c r="BE12" s="15" t="n"/>
       <c r="BF12" s="15" t="n"/>
       <c r="BG12" s="15" t="n"/>
+      <c r="BH12" s="15" t="n"/>
     </row>
     <row r="13" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A13" s="9" t="inlineStr">
@@ -3481,67 +3497,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM13" s="18" t="inlineStr">
+      <c r="AM13" s="18" t="n"/>
+      <c r="AN13" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN13" s="18" t="inlineStr">
+      <c r="AO13" s="18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AO13" s="18" t="inlineStr">
+      <c r="AP13" s="18" t="inlineStr">
         <is>
           <t>654.0</t>
         </is>
       </c>
-      <c r="AP13" s="18" t="inlineStr">
+      <c r="AQ13" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ13" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR13" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS13" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS13" s="18" t="inlineStr">
+      <c r="AT13" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT13" s="18" t="inlineStr">
+      <c r="AU13" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU13" s="18" t="inlineStr">
+      <c r="AV13" s="18" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV13" s="18" t="inlineStr">
+      <c r="AW13" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW13" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX13" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY13" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY13" s="15" t="n"/>
       <c r="AZ13" s="15" t="n"/>
       <c r="BA13" s="15" t="n"/>
       <c r="BB13" s="15" t="n"/>
@@ -3550,6 +3566,7 @@
       <c r="BE13" s="15" t="n"/>
       <c r="BF13" s="15" t="n"/>
       <c r="BG13" s="15" t="n"/>
+      <c r="BH13" s="15" t="n"/>
     </row>
     <row r="14" ht="20" customFormat="1" customHeight="1" s="3">
       <c r="A14" s="11" t="inlineStr">
@@ -3702,67 +3719,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM14" s="19" t="inlineStr">
+      <c r="AM14" s="19" t="n"/>
+      <c r="AN14" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN14" s="19" t="inlineStr">
+      <c r="AO14" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AO14" s="19" t="inlineStr">
+      <c r="AP14" s="19" t="inlineStr">
         <is>
           <t>436.0</t>
         </is>
       </c>
-      <c r="AP14" s="19" t="inlineStr">
+      <c r="AQ14" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ14" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR14" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS14" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS14" s="19" t="inlineStr">
+      <c r="AT14" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT14" s="19" t="inlineStr">
+      <c r="AU14" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU14" s="19" t="inlineStr">
+      <c r="AV14" s="19" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV14" s="19" t="inlineStr">
+      <c r="AW14" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW14" s="19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX14" s="19" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY14" s="19" t="inlineStr">
+        <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="AY14" s="16" t="n"/>
       <c r="AZ14" s="16" t="n"/>
       <c r="BA14" s="16" t="n"/>
       <c r="BB14" s="16" t="n"/>
@@ -3771,6 +3788,7 @@
       <c r="BE14" s="16" t="n"/>
       <c r="BF14" s="16" t="n"/>
       <c r="BG14" s="16" t="n"/>
+      <c r="BH14" s="16" t="n"/>
     </row>
     <row r="15" ht="20" customFormat="1" customHeight="1" s="3">
       <c r="A15" s="11" t="inlineStr">
@@ -3923,67 +3941,67 @@
           <t>82</t>
         </is>
       </c>
-      <c r="AM15" s="19" t="inlineStr">
+      <c r="AM15" s="19" t="n"/>
+      <c r="AN15" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN15" s="19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO15" s="19" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP15" s="19" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP15" s="19" t="inlineStr">
+      <c r="AQ15" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ15" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR15" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS15" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS15" s="19" t="inlineStr">
+      <c r="AT15" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT15" s="19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU15" s="19" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV15" s="19" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV15" s="19" t="inlineStr">
+      <c r="AW15" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW15" s="19" t="inlineStr">
+      <c r="AX15" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX15" s="19" t="inlineStr">
+      <c r="AY15" s="19" t="inlineStr">
         <is>
           <t>176.0</t>
         </is>
       </c>
-      <c r="AY15" s="16" t="n"/>
       <c r="AZ15" s="16" t="n"/>
       <c r="BA15" s="16" t="n"/>
       <c r="BB15" s="16" t="n"/>
@@ -3992,6 +4010,7 @@
       <c r="BE15" s="16" t="n"/>
       <c r="BF15" s="16" t="n"/>
       <c r="BG15" s="16" t="n"/>
+      <c r="BH15" s="16" t="n"/>
     </row>
     <row r="16" ht="20" customFormat="1" customHeight="1" s="3">
       <c r="A16" s="11" t="inlineStr">
@@ -4144,67 +4163,67 @@
           <t>73</t>
         </is>
       </c>
-      <c r="AM16" s="19" t="inlineStr">
+      <c r="AM16" s="19" t="n"/>
+      <c r="AN16" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN16" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO16" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP16" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP16" s="19" t="inlineStr">
+      <c r="AQ16" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ16" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR16" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS16" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS16" s="19" t="inlineStr">
+      <c r="AT16" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT16" s="19" t="inlineStr">
+      <c r="AU16" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU16" s="19" t="inlineStr">
+      <c r="AV16" s="19" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV16" s="19" t="inlineStr">
+      <c r="AW16" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW16" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX16" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY16" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY16" s="16" t="n"/>
       <c r="AZ16" s="16" t="n"/>
       <c r="BA16" s="16" t="n"/>
       <c r="BB16" s="16" t="n"/>
@@ -4213,6 +4232,7 @@
       <c r="BE16" s="16" t="n"/>
       <c r="BF16" s="16" t="n"/>
       <c r="BG16" s="16" t="n"/>
+      <c r="BH16" s="16" t="n"/>
     </row>
     <row r="17" ht="20" customFormat="1" customHeight="1" s="3">
       <c r="A17" s="11" t="inlineStr">
@@ -4357,67 +4377,67 @@
           <t>73</t>
         </is>
       </c>
-      <c r="AM17" s="19" t="inlineStr">
+      <c r="AM17" s="19" t="n"/>
+      <c r="AN17" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN17" s="19" t="inlineStr">
+      <c r="AO17" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AO17" s="19" t="inlineStr">
+      <c r="AP17" s="19" t="inlineStr">
         <is>
           <t>436.0</t>
         </is>
       </c>
-      <c r="AP17" s="19" t="inlineStr">
+      <c r="AQ17" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ17" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR17" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS17" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS17" s="19" t="inlineStr">
+      <c r="AT17" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT17" s="19" t="inlineStr">
+      <c r="AU17" s="19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AU17" s="19" t="inlineStr">
+      <c r="AV17" s="19" t="inlineStr">
         <is>
           <t>177.0</t>
         </is>
       </c>
-      <c r="AV17" s="19" t="inlineStr">
+      <c r="AW17" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW17" s="19" t="inlineStr">
+      <c r="AX17" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX17" s="19" t="inlineStr">
+      <c r="AY17" s="19" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AY17" s="16" t="n"/>
       <c r="AZ17" s="16" t="n"/>
       <c r="BA17" s="16" t="n"/>
       <c r="BB17" s="16" t="n"/>
@@ -4426,6 +4446,7 @@
       <c r="BE17" s="16" t="n"/>
       <c r="BF17" s="16" t="n"/>
       <c r="BG17" s="16" t="n"/>
+      <c r="BH17" s="16" t="n"/>
     </row>
     <row r="18" ht="20" customFormat="1" customHeight="1" s="3">
       <c r="A18" s="11" t="inlineStr">
@@ -4578,67 +4599,67 @@
           <t>79</t>
         </is>
       </c>
-      <c r="AM18" s="19" t="inlineStr">
+      <c r="AM18" s="19" t="n"/>
+      <c r="AN18" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN18" s="19" t="inlineStr">
+      <c r="AO18" s="19" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AO18" s="19" t="inlineStr">
+      <c r="AP18" s="19" t="inlineStr">
         <is>
           <t>872.0</t>
         </is>
       </c>
-      <c r="AP18" s="19" t="inlineStr">
+      <c r="AQ18" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ18" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR18" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS18" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS18" s="19" t="inlineStr">
+      <c r="AT18" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT18" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU18" s="19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV18" s="19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV18" s="19" t="inlineStr">
+      <c r="AW18" s="19" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW18" s="19" t="inlineStr">
+      <c r="AX18" s="19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX18" s="19" t="inlineStr">
+      <c r="AY18" s="19" t="inlineStr">
         <is>
           <t>176.0</t>
         </is>
       </c>
-      <c r="AY18" s="16" t="n"/>
       <c r="AZ18" s="16" t="n"/>
       <c r="BA18" s="16" t="n"/>
       <c r="BB18" s="16" t="n"/>
@@ -4647,6 +4668,7 @@
       <c r="BE18" s="16" t="n"/>
       <c r="BF18" s="16" t="n"/>
       <c r="BG18" s="16" t="n"/>
+      <c r="BH18" s="16" t="n"/>
     </row>
     <row r="19" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A19" s="9" t="inlineStr">
@@ -4799,67 +4821,67 @@
           <t>75</t>
         </is>
       </c>
-      <c r="AM19" s="18" t="inlineStr">
+      <c r="AM19" s="18" t="n"/>
+      <c r="AN19" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN19" s="18" t="inlineStr">
+      <c r="AO19" s="18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AO19" s="18" t="inlineStr">
+      <c r="AP19" s="18" t="inlineStr">
         <is>
           <t>654.0</t>
         </is>
       </c>
-      <c r="AP19" s="18" t="inlineStr">
+      <c r="AQ19" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ19" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR19" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS19" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS19" s="18" t="inlineStr">
+      <c r="AT19" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT19" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU19" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV19" s="18" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV19" s="18" t="inlineStr">
+      <c r="AW19" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW19" s="18" t="inlineStr">
+      <c r="AX19" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX19" s="18" t="inlineStr">
+      <c r="AY19" s="18" t="inlineStr">
         <is>
           <t>176.0</t>
         </is>
       </c>
-      <c r="AY19" s="15" t="n"/>
       <c r="AZ19" s="15" t="n"/>
       <c r="BA19" s="15" t="n"/>
       <c r="BB19" s="15" t="n"/>
@@ -4868,6 +4890,7 @@
       <c r="BE19" s="15" t="n"/>
       <c r="BF19" s="15" t="n"/>
       <c r="BG19" s="15" t="n"/>
+      <c r="BH19" s="15" t="n"/>
     </row>
     <row r="20" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A20" s="9" t="inlineStr">
@@ -5020,67 +5043,67 @@
           <t>86</t>
         </is>
       </c>
-      <c r="AM20" s="18" t="inlineStr">
+      <c r="AM20" s="18" t="n"/>
+      <c r="AN20" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN20" s="18" t="inlineStr">
+      <c r="AO20" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AO20" s="18" t="inlineStr">
+      <c r="AP20" s="18" t="inlineStr">
         <is>
           <t>436.0</t>
         </is>
       </c>
-      <c r="AP20" s="18" t="inlineStr">
+      <c r="AQ20" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ20" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR20" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS20" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS20" s="18" t="inlineStr">
+      <c r="AT20" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT20" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU20" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV20" s="18" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV20" s="18" t="inlineStr">
+      <c r="AW20" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW20" s="18" t="inlineStr">
+      <c r="AX20" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX20" s="18" t="inlineStr">
+      <c r="AY20" s="18" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AY20" s="15" t="n"/>
       <c r="AZ20" s="15" t="n"/>
       <c r="BA20" s="15" t="n"/>
       <c r="BB20" s="15" t="n"/>
@@ -5089,6 +5112,7 @@
       <c r="BE20" s="15" t="n"/>
       <c r="BF20" s="15" t="n"/>
       <c r="BG20" s="15" t="n"/>
+      <c r="BH20" s="15" t="n"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="7" t="inlineStr">
@@ -5241,67 +5265,67 @@
           <t>86</t>
         </is>
       </c>
-      <c r="AM21" s="17" t="inlineStr">
+      <c r="AM21" s="17" t="n"/>
+      <c r="AN21" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN21" s="17" t="inlineStr">
+      <c r="AO21" s="17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AO21" s="17" t="inlineStr">
+      <c r="AP21" s="17" t="inlineStr">
         <is>
           <t>436.0</t>
         </is>
       </c>
-      <c r="AP21" s="17" t="inlineStr">
+      <c r="AQ21" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ21" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR21" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS21" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS21" s="17" t="inlineStr">
+      <c r="AT21" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT21" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU21" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV21" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV21" s="17" t="inlineStr">
+      <c r="AW21" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW21" s="17" t="inlineStr">
+      <c r="AX21" s="17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX21" s="17" t="inlineStr">
+      <c r="AY21" s="17" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AY21" s="14" t="n"/>
       <c r="AZ21" s="14" t="n"/>
       <c r="BA21" s="14" t="n"/>
       <c r="BB21" s="14" t="n"/>
@@ -5310,6 +5334,7 @@
       <c r="BE21" s="14" t="n"/>
       <c r="BF21" s="14" t="n"/>
       <c r="BG21" s="14" t="n"/>
+      <c r="BH21" s="14" t="n"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="7" t="inlineStr">
@@ -5462,67 +5487,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM22" s="17" t="inlineStr">
+      <c r="AM22" s="17" t="n"/>
+      <c r="AN22" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN22" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO22" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP22" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP22" s="17" t="inlineStr">
+      <c r="AQ22" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ22" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR22" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS22" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS22" s="17" t="inlineStr">
+      <c r="AT22" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT22" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU22" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV22" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV22" s="17" t="inlineStr">
+      <c r="AW22" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW22" s="17" t="inlineStr">
+      <c r="AX22" s="17" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AX22" s="17" t="inlineStr">
+      <c r="AY22" s="17" t="inlineStr">
         <is>
           <t>528.0</t>
         </is>
       </c>
-      <c r="AY22" s="14" t="n"/>
       <c r="AZ22" s="14" t="n"/>
       <c r="BA22" s="14" t="n"/>
       <c r="BB22" s="14" t="n"/>
@@ -5531,6 +5556,7 @@
       <c r="BE22" s="14" t="n"/>
       <c r="BF22" s="14" t="n"/>
       <c r="BG22" s="14" t="n"/>
+      <c r="BH22" s="14" t="n"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="7" t="inlineStr">
@@ -5683,67 +5709,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM23" s="17" t="inlineStr">
+      <c r="AM23" s="17" t="n"/>
+      <c r="AN23" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN23" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO23" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP23" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP23" s="17" t="inlineStr">
+      <c r="AQ23" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ23" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR23" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS23" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS23" s="17" t="inlineStr">
+      <c r="AT23" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT23" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU23" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV23" s="17" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV23" s="17" t="inlineStr">
+      <c r="AW23" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW23" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX23" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY23" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY23" s="14" t="n"/>
       <c r="AZ23" s="14" t="n"/>
       <c r="BA23" s="14" t="n"/>
       <c r="BB23" s="14" t="n"/>
@@ -5752,6 +5778,7 @@
       <c r="BE23" s="14" t="n"/>
       <c r="BF23" s="14" t="n"/>
       <c r="BG23" s="14" t="n"/>
+      <c r="BH23" s="14" t="n"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="7" t="inlineStr">
@@ -5904,67 +5931,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM24" s="17" t="inlineStr">
+      <c r="AM24" s="17" t="n"/>
+      <c r="AN24" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN24" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO24" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP24" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP24" s="17" t="inlineStr">
+      <c r="AQ24" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ24" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AR24" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS24" s="17" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AS24" s="17" t="inlineStr">
+      <c r="AT24" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT24" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU24" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV24" s="17" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV24" s="17" t="inlineStr">
+      <c r="AW24" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW24" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX24" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY24" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AY24" s="14" t="n"/>
       <c r="AZ24" s="14" t="n"/>
       <c r="BA24" s="14" t="n"/>
       <c r="BB24" s="14" t="n"/>
@@ -5973,6 +6000,7 @@
       <c r="BE24" s="14" t="n"/>
       <c r="BF24" s="14" t="n"/>
       <c r="BG24" s="14" t="n"/>
+      <c r="BH24" s="14" t="n"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="7" t="inlineStr">
@@ -6125,67 +6153,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM25" s="17" t="inlineStr">
+      <c r="AM25" s="17" t="n"/>
+      <c r="AN25" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN25" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO25" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP25" s="17" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP25" s="17" t="inlineStr">
+      <c r="AQ25" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ25" s="17" t="inlineStr">
+      <c r="AR25" s="17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AR25" s="17" t="inlineStr">
+      <c r="AS25" s="17" t="inlineStr">
         <is>
           <t>256.0</t>
         </is>
       </c>
-      <c r="AS25" s="17" t="inlineStr">
+      <c r="AT25" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT25" s="17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU25" s="17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV25" s="17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV25" s="17" t="inlineStr">
+      <c r="AW25" s="17" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW25" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX25" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY25" s="17" t="inlineStr">
+        <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="AY25" s="14" t="n"/>
       <c r="AZ25" s="14" t="n"/>
       <c r="BA25" s="14" t="n"/>
       <c r="BB25" s="14" t="n"/>
@@ -6194,6 +6222,7 @@
       <c r="BE25" s="14" t="n"/>
       <c r="BF25" s="14" t="n"/>
       <c r="BG25" s="14" t="n"/>
+      <c r="BH25" s="14" t="n"/>
     </row>
     <row r="26" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A26" s="9" t="inlineStr">
@@ -6346,67 +6375,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM26" s="18" t="inlineStr">
+      <c r="AM26" s="18" t="n"/>
+      <c r="AN26" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN26" s="18" t="inlineStr">
+      <c r="AO26" s="18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AO26" s="18" t="inlineStr">
+      <c r="AP26" s="18" t="inlineStr">
         <is>
           <t>654.0</t>
         </is>
       </c>
-      <c r="AP26" s="18" t="inlineStr">
+      <c r="AQ26" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ26" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR26" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS26" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS26" s="18" t="inlineStr">
+      <c r="AT26" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT26" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU26" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV26" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV26" s="18" t="inlineStr">
+      <c r="AW26" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW26" s="18" t="inlineStr">
+      <c r="AX26" s="18" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AX26" s="18" t="inlineStr">
+      <c r="AY26" s="18" t="inlineStr">
         <is>
           <t>552.0</t>
         </is>
       </c>
-      <c r="AY26" s="15" t="n"/>
       <c r="AZ26" s="15" t="n"/>
       <c r="BA26" s="15" t="n"/>
       <c r="BB26" s="15" t="n"/>
@@ -6415,6 +6444,7 @@
       <c r="BE26" s="15" t="n"/>
       <c r="BF26" s="15" t="n"/>
       <c r="BG26" s="15" t="n"/>
+      <c r="BH26" s="15" t="n"/>
     </row>
     <row r="27" ht="20" customFormat="1" customHeight="1" s="2">
       <c r="A27" s="9" t="inlineStr">
@@ -6567,67 +6597,67 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM27" s="18" t="inlineStr">
+      <c r="AM27" s="18" t="n"/>
+      <c r="AN27" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN27" s="18" t="inlineStr">
+      <c r="AO27" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AO27" s="18" t="inlineStr">
+      <c r="AP27" s="18" t="inlineStr">
         <is>
           <t>436.0</t>
         </is>
       </c>
-      <c r="AP27" s="18" t="inlineStr">
+      <c r="AQ27" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ27" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR27" s="18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS27" s="18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS27" s="18" t="inlineStr">
+      <c r="AT27" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT27" s="18" t="inlineStr">
+      <c r="AU27" s="18" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AU27" s="18" t="inlineStr">
+      <c r="AV27" s="18" t="inlineStr">
         <is>
           <t>236.0</t>
         </is>
       </c>
-      <c r="AV27" s="18" t="inlineStr">
+      <c r="AW27" s="18" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW27" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX27" s="18" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY27" s="18" t="inlineStr">
+        <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="AY27" s="15" t="n"/>
       <c r="AZ27" s="15" t="n"/>
       <c r="BA27" s="15" t="n"/>
       <c r="BB27" s="15" t="n"/>
@@ -6636,6 +6666,7 @@
       <c r="BE27" s="15" t="n"/>
       <c r="BF27" s="15" t="n"/>
       <c r="BG27" s="15" t="n"/>
+      <c r="BH27" s="15" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6738,62 +6769,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR28" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU28" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -6900,62 +6931,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO29" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR29" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU29" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV29" t="inlineStr">
+      <c r="AW29" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7062,62 +7093,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO30" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR30" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU30" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV30" t="inlineStr">
+      <c r="AW30" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7224,62 +7255,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO31" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR31" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU31" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV31" t="inlineStr">
+      <c r="AW31" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7386,62 +7417,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7548,62 +7579,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO33" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR33" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU33" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV33" t="inlineStr">
+      <c r="AW33" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7710,62 +7741,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV34" t="inlineStr">
+      <c r="AW34" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7872,62 +7903,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO35" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR35" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU35" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV35" t="inlineStr">
+      <c r="AW35" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -8034,62 +8065,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV36" t="inlineStr">
+      <c r="AW36" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -8196,62 +8227,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO37" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR37" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU37" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV37" t="inlineStr">
+      <c r="AW37" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -8358,62 +8389,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO38" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR38" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU38" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV38" t="inlineStr">
+      <c r="AW38" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -8530,62 +8561,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR39" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU39" t="inlineStr">
+      <c r="AV39" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV39" t="inlineStr">
+      <c r="AW39" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW39" t="inlineStr">
+      <c r="AX39" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX39" t="inlineStr">
+      <c r="AY39" t="inlineStr">
         <is>
           <t>176.0</t>
         </is>
@@ -8702,62 +8733,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO40" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR40" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU40" t="inlineStr">
+      <c r="AV40" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV40" t="inlineStr">
+      <c r="AW40" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW40" t="inlineStr">
+      <c r="AX40" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX40" t="inlineStr">
+      <c r="AY40" t="inlineStr">
         <is>
           <t>176.0</t>
         </is>
@@ -8874,62 +8905,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO41" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR41" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU41" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV41" t="inlineStr">
+      <c r="AW41" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW41" t="inlineStr">
+      <c r="AX41" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX41" t="inlineStr">
+      <c r="AY41" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
@@ -9036,62 +9067,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO42" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR42" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU42" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV42" t="inlineStr">
+      <c r="AW42" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9198,62 +9229,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO43" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR43" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU43" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV43" t="inlineStr">
+      <c r="AW43" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9360,62 +9391,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO44" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR44" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AU44" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AV44" t="inlineStr">
+      <c r="AW44" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AX44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -9532,62 +9563,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR45" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV45" t="inlineStr">
+      <c r="AW45" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW45" t="inlineStr">
+      <c r="AX45" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX45" t="inlineStr">
+      <c r="AY45" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -9704,62 +9735,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO46" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR46" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU46" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV46" t="inlineStr">
+      <c r="AW46" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW46" t="inlineStr">
+      <c r="AX46" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX46" t="inlineStr">
+      <c r="AY46" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -9921,62 +9952,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO47" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR47" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU47" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV47" t="inlineStr">
+      <c r="AW47" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW47" t="inlineStr">
+      <c r="AX47" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX47" t="inlineStr">
+      <c r="AY47" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -10138,62 +10169,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO48" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR48" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU48" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV48" t="inlineStr">
+      <c r="AW48" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW48" t="inlineStr">
+      <c r="AX48" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX48" t="inlineStr">
+      <c r="AY48" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -10355,62 +10386,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO49" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR49" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU49" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV49" t="inlineStr">
+      <c r="AW49" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW49" t="inlineStr">
+      <c r="AX49" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX49" t="inlineStr">
+      <c r="AY49" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -10582,62 +10613,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO50" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR50" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU50" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV50" t="inlineStr">
+      <c r="AW50" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW50" t="inlineStr">
+      <c r="AX50" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX50" t="inlineStr">
+      <c r="AY50" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -10809,62 +10840,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO51" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR51" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU51" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV51" t="inlineStr">
+      <c r="AW51" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW51" t="inlineStr">
+      <c r="AX51" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX51" t="inlineStr">
+      <c r="AY51" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -11036,62 +11067,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO52" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR52" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU52" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV52" t="inlineStr">
+      <c r="AW52" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW52" t="inlineStr">
+      <c r="AX52" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX52" t="inlineStr">
+      <c r="AY52" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -11263,62 +11294,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO53" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
           <t>218.0</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AR53" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AU53" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="AV53" t="inlineStr">
+      <c r="AW53" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW53" t="inlineStr">
+      <c r="AX53" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AX53" t="inlineStr">
+      <c r="AY53" t="inlineStr">
         <is>
           <t>352.0</t>
         </is>
@@ -11490,62 +11521,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>654.0</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AR54" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>256.0</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU54" t="inlineStr">
+      <c r="AV54" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV54" t="inlineStr">
+      <c r="AW54" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
         <is>
           <t>88.0</t>
         </is>
@@ -11717,62 +11748,62 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>654.0</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AR55" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>256.0</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU55" t="inlineStr">
+      <c r="AV55" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV55" t="inlineStr">
+      <c r="AW55" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
         <is>
           <t>88.0</t>
         </is>
@@ -11874,7 +11905,6 @@
           <t>1116</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
           <t>1195</t>
@@ -11945,64 +11975,4772 @@
           <t>100名以外</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>654.0</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AR56" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>256.0</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
         </is>
       </c>
-      <c r="AT56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AU56" t="inlineStr">
+      <c r="AV56" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AV56" t="inlineStr">
+      <c r="AW56" t="inlineStr">
         <is>
           <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
         </is>
       </c>
-      <c r="AW56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AX56" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr">
+        <is>
           <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3,382</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1036.00</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AQ57" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3,382</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1036.00</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AQ58" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3,382</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1036.00</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ63" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ65" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>3,330</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>560.00</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>228.00</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AQ70" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>1374.00</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="AQ72" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1374.00</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>1102.00</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>1102.00</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>1102.00</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="AQ76" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AR76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>1102.00</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>20220307_❤️精致下午茶套餐❤️_丘CHILL Whiskey...单人餐[28.0元][754596656]</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>20220208_单人爆款超饱套餐_丘CHILL Whiskey...单人餐[59.0元][749248424]</t>
+        </is>
+      </c>
+      <c r="AQ77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR77" t="inlineStr">
+        <is>
+          <t>20220210_双人夜间畅饮套餐_丘CHILL Whiskey...2人餐[128.0元][749597772]</t>
+        </is>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>20220105_❤️双人浪漫扒餐❤️_丘CHILL Whiskey...2人餐[218.0元][743744808]</t>
+        </is>
+      </c>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV77" t="inlineStr">
+        <is>
+          <t>20211118_丘CHILL代金券_丘CHILL Whiskey...代金券[88.0元][733874256]</t>
+        </is>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
